--- a/results/recognition/csv/full_rotated_fourier.xlsx
+++ b/results/recognition/csv/full_rotated_fourier.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">NORMAL</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t xml:space="preserve">FOURIER_ORIGINAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QFMRI_INT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QFMRI_ORIGINAL</t>
   </si>
   <si>
     <t xml:space="preserve">COIL_ROTATED</t>
@@ -64,6 +70,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -145,20 +152,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.99"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -177,13 +186,19 @@
       <c r="H1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="I1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>100</v>
@@ -198,12 +213,18 @@
         <v>100</v>
       </c>
       <c r="H2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" s="0" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>80</v>
@@ -222,6 +243,12 @@
       </c>
       <c r="H3" s="0" t="n">
         <v>100</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>99.1071428571429</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>98.2142857142857</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -243,6 +270,12 @@
       <c r="H4" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="I4" s="0" t="n">
+        <v>97.5198412698413</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>95.734126984127</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="n">
@@ -262,6 +295,12 @@
       </c>
       <c r="H5" s="0" t="n">
         <v>100</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>96.4285714285714</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>92.9563492063492</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -283,6 +322,12 @@
       <c r="H6" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="I6" s="0" t="n">
+        <v>97.1230158730159</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>90.9722222222222</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="n">
@@ -303,10 +348,16 @@
       <c r="H7" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="I7" s="0" t="n">
+        <v>94.0476190476191</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>92.4603174603175</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>80</v>
@@ -325,6 +376,12 @@
       </c>
       <c r="H8" s="0" t="n">
         <v>100</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>97.5198412698413</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>99.6031746031746</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -346,6 +403,12 @@
       <c r="H9" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="I9" s="0" t="n">
+        <v>97.0238095238095</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>92.4603174603175</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="n">
@@ -365,6 +428,12 @@
       </c>
       <c r="H10" s="0" t="n">
         <v>100</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>96.6269841269841</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>97.0238095238095</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -386,6 +455,12 @@
       <c r="H11" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="I11" s="0" t="n">
+        <v>96.9246031746032</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>95.2380952380952</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="n">
@@ -406,10 +481,16 @@
       <c r="H12" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="I12" s="0" t="n">
+        <v>96.6269841269841</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>89.1865079365079</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>5</v>
@@ -427,6 +508,12 @@
         <v>100</v>
       </c>
       <c r="H13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J13" s="0" t="n">
         <v>100</v>
       </c>
     </row>
@@ -449,6 +536,12 @@
       <c r="H14" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="I14" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="n">
@@ -469,6 +562,12 @@
       <c r="H15" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="I15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="n">
@@ -489,6 +588,12 @@
       <c r="H16" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="I16" s="0" t="n">
+        <v>99.702380952381</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>99.702380952381</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="n">
@@ -509,6 +614,12 @@
       <c r="H17" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="I17" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>99.9007936507936</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="n">
@@ -528,6 +639,12 @@
       </c>
       <c r="H18" s="0" t="n">
         <v>100</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>97.1230158730159</v>
       </c>
     </row>
   </sheetData>
